--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.62964533333333</v>
+        <v>9.450759333333334</v>
       </c>
       <c r="H2">
-        <v>73.888936</v>
+        <v>28.352278</v>
       </c>
       <c r="I2">
-        <v>0.7460691037955391</v>
+        <v>0.6100581096599255</v>
       </c>
       <c r="J2">
-        <v>0.746069103795539</v>
+        <v>0.6100581096599255</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>66.04433166666666</v>
+        <v>75.02398799999999</v>
       </c>
       <c r="N2">
-        <v>198.132995</v>
+        <v>225.071964</v>
       </c>
       <c r="O2">
-        <v>0.9905709103863496</v>
+        <v>0.9946207163417996</v>
       </c>
       <c r="P2">
-        <v>0.9905709103863498</v>
+        <v>0.9946207163417997</v>
       </c>
       <c r="Q2">
-        <v>1626.648465227036</v>
+        <v>709.0336548148879</v>
       </c>
       <c r="R2">
-        <v>14639.83618704332</v>
+        <v>6381.302893333992</v>
       </c>
       <c r="S2">
-        <v>0.7390343513578752</v>
+        <v>0.6067764340400792</v>
       </c>
       <c r="T2">
-        <v>0.7390343513578752</v>
+        <v>0.6067764340400793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.62964533333333</v>
+        <v>9.450759333333334</v>
       </c>
       <c r="H3">
-        <v>73.888936</v>
+        <v>28.352278</v>
       </c>
       <c r="I3">
-        <v>0.7460691037955391</v>
+        <v>0.6100581096599255</v>
       </c>
       <c r="J3">
-        <v>0.746069103795539</v>
+        <v>0.6100581096599255</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.290024</v>
       </c>
       <c r="O3">
-        <v>0.001449982309679873</v>
+        <v>0.001281651759329359</v>
       </c>
       <c r="P3">
-        <v>0.001449982309679873</v>
+        <v>0.001281651759329359</v>
       </c>
       <c r="Q3">
-        <v>2.381062752718222</v>
+        <v>0.913649008296889</v>
       </c>
       <c r="R3">
-        <v>21.429564774464</v>
+        <v>8.222841074672001</v>
       </c>
       <c r="S3">
-        <v>0.001081787002302249</v>
+        <v>0.0007818820495387864</v>
       </c>
       <c r="T3">
-        <v>0.001081787002302249</v>
+        <v>0.0007818820495387864</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.62964533333333</v>
+        <v>9.450759333333334</v>
       </c>
       <c r="H4">
-        <v>73.888936</v>
+        <v>28.352278</v>
       </c>
       <c r="I4">
-        <v>0.7460691037955391</v>
+        <v>0.6100581096599255</v>
       </c>
       <c r="J4">
-        <v>0.746069103795539</v>
+        <v>0.6100581096599255</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5025553333333334</v>
+        <v>0.291865</v>
       </c>
       <c r="N4">
-        <v>1.507666</v>
+        <v>0.875595</v>
       </c>
       <c r="O4">
-        <v>0.007537614228152894</v>
+        <v>0.00386936209489556</v>
       </c>
       <c r="P4">
-        <v>0.007537614228152896</v>
+        <v>0.00386936209489556</v>
       </c>
       <c r="Q4">
-        <v>12.37775962037511</v>
+        <v>2.758345872823333</v>
       </c>
       <c r="R4">
-        <v>111.399836583376</v>
+        <v>24.82511285541</v>
       </c>
       <c r="S4">
-        <v>0.005623581091954534</v>
+        <v>0.002360535725201755</v>
       </c>
       <c r="T4">
-        <v>0.005623581091954534</v>
+        <v>0.002360535725201755</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.62964533333333</v>
+        <v>9.450759333333334</v>
       </c>
       <c r="H5">
-        <v>73.888936</v>
+        <v>28.352278</v>
       </c>
       <c r="I5">
-        <v>0.7460691037955391</v>
+        <v>0.6100581096599255</v>
       </c>
       <c r="J5">
-        <v>0.746069103795539</v>
+        <v>0.6100581096599255</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02943566666666667</v>
+        <v>0.01721833333333333</v>
       </c>
       <c r="N5">
-        <v>0.08830700000000001</v>
+        <v>0.051655</v>
       </c>
       <c r="O5">
-        <v>0.0004414930758175203</v>
+        <v>0.0002282698039753883</v>
       </c>
       <c r="P5">
-        <v>0.0004414930758175205</v>
+        <v>0.0002282698039753884</v>
       </c>
       <c r="Q5">
-        <v>0.7249900301502222</v>
+        <v>0.1627263244544444</v>
       </c>
       <c r="R5">
-        <v>6.524910271352001</v>
+        <v>1.46453692009</v>
       </c>
       <c r="S5">
-        <v>0.0003293843434071134</v>
+        <v>0.0001392578451056671</v>
       </c>
       <c r="T5">
-        <v>0.0003293843434071135</v>
+        <v>0.0001392578451056672</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>1.769696333333333</v>
       </c>
       <c r="H6">
-        <v>5.309088999999999</v>
+        <v>5.309089</v>
       </c>
       <c r="I6">
-        <v>0.05360677100832464</v>
+        <v>0.1142360694740755</v>
       </c>
       <c r="J6">
-        <v>0.05360677100832463</v>
+        <v>0.1142360694740756</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>66.04433166666666</v>
+        <v>75.02398799999999</v>
       </c>
       <c r="N6">
-        <v>198.132995</v>
+        <v>225.071964</v>
       </c>
       <c r="O6">
-        <v>0.9905709103863496</v>
+        <v>0.9946207163417996</v>
       </c>
       <c r="P6">
-        <v>0.9905709103863498</v>
+        <v>0.9946207163417997</v>
       </c>
       <c r="Q6">
-        <v>116.8784115879505</v>
+        <v>132.769676475644</v>
       </c>
       <c r="R6">
-        <v>1051.905704291555</v>
+        <v>1194.927088280796</v>
       </c>
       <c r="S6">
-        <v>0.05310130796058871</v>
+        <v>0.1136215612523766</v>
       </c>
       <c r="T6">
-        <v>0.05310130796058871</v>
+        <v>0.1136215612523766</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>1.769696333333333</v>
       </c>
       <c r="H7">
-        <v>5.309088999999999</v>
+        <v>5.309089</v>
       </c>
       <c r="I7">
-        <v>0.05360677100832464</v>
+        <v>0.1142360694740755</v>
       </c>
       <c r="J7">
-        <v>0.05360677100832463</v>
+        <v>0.1142360694740756</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.290024</v>
       </c>
       <c r="O7">
-        <v>0.001449982309679873</v>
+        <v>0.001281651759329359</v>
       </c>
       <c r="P7">
-        <v>0.001449982309679873</v>
+        <v>0.001281651759329359</v>
       </c>
       <c r="Q7">
         <v>0.1710848031262222</v>
@@ -883,10 +883,10 @@
         <v>1.539763228136</v>
       </c>
       <c r="S7">
-        <v>7.772886964113059E-05</v>
+        <v>0.0001464108594203198</v>
       </c>
       <c r="T7">
-        <v>7.77288696411306E-05</v>
+        <v>0.0001464108594203198</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>1.769696333333333</v>
       </c>
       <c r="H8">
-        <v>5.309088999999999</v>
+        <v>5.309089</v>
       </c>
       <c r="I8">
-        <v>0.05360677100832464</v>
+        <v>0.1142360694740755</v>
       </c>
       <c r="J8">
-        <v>0.05360677100832463</v>
+        <v>0.1142360694740756</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5025553333333334</v>
+        <v>0.291865</v>
       </c>
       <c r="N8">
-        <v>1.507666</v>
+        <v>0.875595</v>
       </c>
       <c r="O8">
-        <v>0.007537614228152894</v>
+        <v>0.00386936209489556</v>
       </c>
       <c r="P8">
-        <v>0.007537614228152896</v>
+        <v>0.00386936209489556</v>
       </c>
       <c r="Q8">
-        <v>0.889370330697111</v>
+        <v>0.5165124203283333</v>
       </c>
       <c r="R8">
-        <v>8.004332976273998</v>
+        <v>4.648611782955</v>
       </c>
       <c r="S8">
-        <v>0.0004040671598776818</v>
+        <v>0.0004420207170928437</v>
       </c>
       <c r="T8">
-        <v>0.0004040671598776819</v>
+        <v>0.0004420207170928438</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>1.769696333333333</v>
       </c>
       <c r="H9">
-        <v>5.309088999999999</v>
+        <v>5.309089</v>
       </c>
       <c r="I9">
-        <v>0.05360677100832464</v>
+        <v>0.1142360694740755</v>
       </c>
       <c r="J9">
-        <v>0.05360677100832463</v>
+        <v>0.1142360694740756</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02943566666666667</v>
+        <v>0.01721833333333333</v>
       </c>
       <c r="N9">
-        <v>0.08830700000000001</v>
+        <v>0.051655</v>
       </c>
       <c r="O9">
-        <v>0.0004414930758175203</v>
+        <v>0.0002282698039753883</v>
       </c>
       <c r="P9">
-        <v>0.0004414930758175205</v>
+        <v>0.0002282698039753884</v>
       </c>
       <c r="Q9">
-        <v>0.05209219136922222</v>
+        <v>0.03047122136611111</v>
       </c>
       <c r="R9">
-        <v>0.468829722323</v>
+        <v>0.274240992295</v>
       </c>
       <c r="S9">
-        <v>2.366701821711072E-05</v>
+        <v>2.607664518576607E-05</v>
       </c>
       <c r="T9">
-        <v>2.366701821711072E-05</v>
+        <v>2.607664518576607E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.338186666666666</v>
+        <v>3.398621333333333</v>
       </c>
       <c r="H10">
-        <v>16.01456</v>
+        <v>10.195864</v>
       </c>
       <c r="I10">
-        <v>0.1617017252336654</v>
+        <v>0.2193851766757396</v>
       </c>
       <c r="J10">
-        <v>0.1617017252336654</v>
+        <v>0.2193851766757396</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>66.04433166666666</v>
+        <v>75.02398799999999</v>
       </c>
       <c r="N10">
-        <v>198.132995</v>
+        <v>225.071964</v>
       </c>
       <c r="O10">
-        <v>0.9905709103863496</v>
+        <v>0.9946207163417996</v>
       </c>
       <c r="P10">
-        <v>0.9905709103863498</v>
+        <v>0.9946207163417997</v>
       </c>
       <c r="Q10">
-        <v>352.556970711911</v>
+        <v>254.9781261285439</v>
       </c>
       <c r="R10">
-        <v>3173.0127364072</v>
+        <v>2294.803135156896</v>
       </c>
       <c r="S10">
-        <v>0.1601770251757553</v>
+        <v>0.2182050415799964</v>
       </c>
       <c r="T10">
-        <v>0.1601770251757553</v>
+        <v>0.2182050415799965</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.338186666666666</v>
+        <v>3.398621333333333</v>
       </c>
       <c r="H11">
-        <v>16.01456</v>
+        <v>10.195864</v>
       </c>
       <c r="I11">
-        <v>0.1617017252336654</v>
+        <v>0.2193851766757396</v>
       </c>
       <c r="J11">
-        <v>0.1617017252336654</v>
+        <v>0.2193851766757396</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.290024</v>
       </c>
       <c r="O11">
-        <v>0.001449982309679873</v>
+        <v>0.001281651759329359</v>
       </c>
       <c r="P11">
-        <v>0.001449982309679873</v>
+        <v>0.001281651759329359</v>
       </c>
       <c r="Q11">
-        <v>0.5160674166044444</v>
+        <v>0.3285605845262222</v>
       </c>
       <c r="R11">
-        <v>4.64460674944</v>
+        <v>2.957045260736</v>
       </c>
       <c r="S11">
-        <v>0.0002344646410335303</v>
+        <v>0.0002811753976572439</v>
       </c>
       <c r="T11">
-        <v>0.0002344646410335303</v>
+        <v>0.0002811753976572439</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.338186666666666</v>
+        <v>3.398621333333333</v>
       </c>
       <c r="H12">
-        <v>16.01456</v>
+        <v>10.195864</v>
       </c>
       <c r="I12">
-        <v>0.1617017252336654</v>
+        <v>0.2193851766757396</v>
       </c>
       <c r="J12">
-        <v>0.1617017252336654</v>
+        <v>0.2193851766757396</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5025553333333334</v>
+        <v>0.291865</v>
       </c>
       <c r="N12">
-        <v>1.507666</v>
+        <v>0.875595</v>
       </c>
       <c r="O12">
-        <v>0.007537614228152894</v>
+        <v>0.00386936209489556</v>
       </c>
       <c r="P12">
-        <v>0.007537614228152896</v>
+        <v>0.00386936209489556</v>
       </c>
       <c r="Q12">
-        <v>2.682734179662222</v>
+        <v>0.9919386154533333</v>
       </c>
       <c r="R12">
-        <v>24.14460761696</v>
+        <v>8.927447539080001</v>
       </c>
       <c r="S12">
-        <v>0.001218845224838146</v>
+        <v>0.0008488806868110724</v>
       </c>
       <c r="T12">
-        <v>0.001218845224838146</v>
+        <v>0.0008488806868110726</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.338186666666666</v>
+        <v>3.398621333333333</v>
       </c>
       <c r="H13">
-        <v>16.01456</v>
+        <v>10.195864</v>
       </c>
       <c r="I13">
-        <v>0.1617017252336654</v>
+        <v>0.2193851766757396</v>
       </c>
       <c r="J13">
-        <v>0.1617017252336654</v>
+        <v>0.2193851766757396</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02943566666666667</v>
+        <v>0.01721833333333333</v>
       </c>
       <c r="N13">
-        <v>0.08830700000000001</v>
+        <v>0.051655</v>
       </c>
       <c r="O13">
-        <v>0.0004414930758175203</v>
+        <v>0.0002282698039753883</v>
       </c>
       <c r="P13">
-        <v>0.0004414930758175205</v>
+        <v>0.0002282698039753884</v>
       </c>
       <c r="Q13">
-        <v>0.1571330833244445</v>
+        <v>0.0585185949911111</v>
       </c>
       <c r="R13">
-        <v>1.41419774992</v>
+        <v>0.5266673549200001</v>
       </c>
       <c r="S13">
-        <v>7.139019203841049E-05</v>
+        <v>5.007901127487702E-05</v>
       </c>
       <c r="T13">
-        <v>7.13901920384105E-05</v>
+        <v>5.007901127487703E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.275024</v>
+        <v>0.8724953333333333</v>
       </c>
       <c r="H14">
-        <v>3.825072</v>
+        <v>2.617486</v>
       </c>
       <c r="I14">
-        <v>0.03862239996247084</v>
+        <v>0.0563206441902594</v>
       </c>
       <c r="J14">
-        <v>0.03862239996247083</v>
+        <v>0.05632064419025941</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>66.04433166666666</v>
+        <v>75.02398799999999</v>
       </c>
       <c r="N14">
-        <v>198.132995</v>
+        <v>225.071964</v>
       </c>
       <c r="O14">
-        <v>0.9905709103863496</v>
+        <v>0.9946207163417996</v>
       </c>
       <c r="P14">
-        <v>0.9905709103863498</v>
+        <v>0.9946207163417997</v>
       </c>
       <c r="Q14">
-        <v>84.20810793896</v>
+        <v>65.45807941805599</v>
       </c>
       <c r="R14">
-        <v>757.87297145064</v>
+        <v>589.122714762504</v>
       </c>
       <c r="S14">
-        <v>0.03825822589213045</v>
+        <v>0.05601767946934742</v>
       </c>
       <c r="T14">
-        <v>0.03825822589213046</v>
+        <v>0.05601767946934744</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.275024</v>
+        <v>0.8724953333333333</v>
       </c>
       <c r="H15">
-        <v>3.825072</v>
+        <v>2.617486</v>
       </c>
       <c r="I15">
-        <v>0.03862239996247084</v>
+        <v>0.0563206441902594</v>
       </c>
       <c r="J15">
-        <v>0.03862239996247083</v>
+        <v>0.05632064419025941</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.290024</v>
       </c>
       <c r="O15">
-        <v>0.001449982309679873</v>
+        <v>0.001281651759329359</v>
       </c>
       <c r="P15">
-        <v>0.001449982309679873</v>
+        <v>0.001281651759329359</v>
       </c>
       <c r="Q15">
-        <v>0.123262520192</v>
+        <v>0.08434819551822223</v>
       </c>
       <c r="R15">
-        <v>1.109362681728</v>
+        <v>0.759133759664</v>
       </c>
       <c r="S15">
-        <v>5.60017967029633E-05</v>
+        <v>7.21834527130088E-05</v>
       </c>
       <c r="T15">
-        <v>5.60017967029633E-05</v>
+        <v>7.218345271300881E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.275024</v>
+        <v>0.8724953333333333</v>
       </c>
       <c r="H16">
-        <v>3.825072</v>
+        <v>2.617486</v>
       </c>
       <c r="I16">
-        <v>0.03862239996247084</v>
+        <v>0.0563206441902594</v>
       </c>
       <c r="J16">
-        <v>0.03862239996247083</v>
+        <v>0.05632064419025941</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5025553333333334</v>
+        <v>0.291865</v>
       </c>
       <c r="N16">
-        <v>1.507666</v>
+        <v>0.875595</v>
       </c>
       <c r="O16">
-        <v>0.007537614228152894</v>
+        <v>0.00386936209489556</v>
       </c>
       <c r="P16">
-        <v>0.007537614228152896</v>
+        <v>0.00386936209489556</v>
       </c>
       <c r="Q16">
-        <v>0.640770111328</v>
+        <v>0.2546508504633333</v>
       </c>
       <c r="R16">
-        <v>5.766931001952</v>
+        <v>2.29185765417</v>
       </c>
       <c r="S16">
-        <v>0.000291120751482532</v>
+        <v>0.0002179249657898896</v>
       </c>
       <c r="T16">
-        <v>0.000291120751482532</v>
+        <v>0.0002179249657898896</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.275024</v>
+        <v>0.8724953333333333</v>
       </c>
       <c r="H17">
-        <v>3.825072</v>
+        <v>2.617486</v>
       </c>
       <c r="I17">
-        <v>0.03862239996247084</v>
+        <v>0.0563206441902594</v>
       </c>
       <c r="J17">
-        <v>0.03862239996247083</v>
+        <v>0.05632064419025941</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.02943566666666667</v>
+        <v>0.01721833333333333</v>
       </c>
       <c r="N17">
-        <v>0.08830700000000001</v>
+        <v>0.051655</v>
       </c>
       <c r="O17">
-        <v>0.0004414930758175203</v>
+        <v>0.0002282698039753883</v>
       </c>
       <c r="P17">
-        <v>0.0004414930758175205</v>
+        <v>0.0002282698039753884</v>
       </c>
       <c r="Q17">
-        <v>0.037531181456</v>
+        <v>0.01502291548111111</v>
       </c>
       <c r="R17">
-        <v>0.337780633104</v>
+        <v>0.13520623933</v>
       </c>
       <c r="S17">
-        <v>1.705152215488573E-05</v>
+        <v>1.285630240907811E-05</v>
       </c>
       <c r="T17">
-        <v>1.705152215488574E-05</v>
+        <v>1.285630240907811E-05</v>
       </c>
     </row>
   </sheetData>
